--- a/Christian Stiehl/Bedrijfspunten/Timesheet.xlsx
+++ b/Christian Stiehl/Bedrijfspunten/Timesheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstie\Documents\GIT\LiveTool(HvA)\Christian Stiehl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstie\Documents\GIT\LiveTool(HvA)\Christian Stiehl\Bedrijfspunten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,27 @@
   </si>
   <si>
     <t>14/8/2017</t>
+  </si>
+  <si>
+    <t>Skyped with Riemer got clarification on instances</t>
+  </si>
+  <si>
+    <t>Worked on instances</t>
+  </si>
+  <si>
+    <t>15/8/2017</t>
+  </si>
+  <si>
+    <t>16/8/2017</t>
+  </si>
+  <si>
+    <t>17/8/2017</t>
+  </si>
+  <si>
+    <t>18/8/2017</t>
+  </si>
+  <si>
+    <t>Fixed problems for Anders.</t>
   </si>
 </sst>
 </file>
@@ -211,12 +232,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -533,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +992,12 @@
       <c r="A39" s="1">
         <v>43047</v>
       </c>
+      <c r="B39" s="3">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -995,16 +1025,57 @@
       <c r="A42" t="s">
         <v>47</v>
       </c>
+      <c r="B42" s="3">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <f>SUM(B2:B42)</f>
-        <v>124</v>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>SUM(B2:B46)</f>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
